--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Fall.102220.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Fall.102220.xlsx_with_dialog_acts.xlsx
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2407,12 +2407,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3797,12 +3797,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4095,12 +4095,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4221,12 +4221,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4263,12 +4263,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4683,12 +4683,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4893,12 +4893,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4977,12 +4977,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5145,12 +5145,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5313,12 +5313,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5355,12 +5355,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5439,12 +5439,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5977,12 +5977,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6019,12 +6019,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6271,12 +6271,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6355,12 +6355,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6649,12 +6649,12 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6901,12 +6901,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6943,12 +6943,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7195,12 +7195,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7405,12 +7405,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7657,12 +7657,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8119,12 +8119,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8161,12 +8161,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8749,12 +8749,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8875,12 +8875,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9001,12 +9001,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10005,12 +10005,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10047,12 +10047,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10257,12 +10257,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10467,12 +10467,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10551,12 +10551,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10635,12 +10635,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10969,12 +10969,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11179,12 +11179,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11431,12 +11431,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11473,12 +11473,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11599,12 +11599,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11767,12 +11767,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11809,12 +11809,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12485,12 +12485,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12527,12 +12527,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
